--- a/数据整理/stocks/A股/深证主板/000089-深圳机场.xlsx
+++ b/数据整理/stocks/A股/深证主板/000089-深圳机场.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="102">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,196 +22,304 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>001499</t>
+  </si>
+  <si>
+    <t>002358</t>
+  </si>
+  <si>
+    <t>000556</t>
+  </si>
+  <si>
+    <t>004731</t>
+  </si>
+  <si>
+    <t>001488</t>
+  </si>
+  <si>
     <t>003734</t>
   </si>
   <si>
+    <t>161222</t>
+  </si>
+  <si>
+    <t>000590</t>
+  </si>
+  <si>
+    <t>121010</t>
+  </si>
+  <si>
+    <t>000458</t>
+  </si>
+  <si>
+    <t>001489</t>
+  </si>
+  <si>
+    <t>007326</t>
+  </si>
+  <si>
+    <t>001266</t>
+  </si>
+  <si>
     <t>003735</t>
   </si>
   <si>
-    <t>004731</t>
+    <t>000557</t>
   </si>
   <si>
     <t>004732</t>
   </si>
   <si>
+    <t>007943</t>
+  </si>
+  <si>
     <t>005126</t>
   </si>
   <si>
-    <t>000458</t>
-  </si>
-  <si>
-    <t>000556</t>
-  </si>
-  <si>
-    <t>000557</t>
-  </si>
-  <si>
-    <t>000590</t>
-  </si>
-  <si>
-    <t>001266</t>
-  </si>
-  <si>
-    <t>001488</t>
-  </si>
-  <si>
-    <t>001489</t>
-  </si>
-  <si>
-    <t>001499</t>
-  </si>
-  <si>
-    <t>007326</t>
-  </si>
-  <si>
-    <t>121010</t>
-  </si>
-  <si>
-    <t>161222</t>
-  </si>
-  <si>
-    <t>002358</t>
-  </si>
-  <si>
-    <t>007943</t>
+    <t>国投瑞银新增长灵活配置混合A</t>
+  </si>
+  <si>
+    <t>国投瑞银瑞祥灵活配置混合</t>
+  </si>
+  <si>
+    <t>国投瑞银新机遇灵活配置混合A</t>
+  </si>
+  <si>
+    <t>万家瑞尧灵活配置混合A</t>
+  </si>
+  <si>
+    <t>万家瑞丰灵活配置混合A</t>
   </si>
   <si>
     <t>万家瑞盈灵活配置混合A</t>
   </si>
   <si>
+    <t>国投瑞银瑞利灵活配置混合（LOF）</t>
+  </si>
+  <si>
+    <t>华安新活力灵活配置混合</t>
+  </si>
+  <si>
+    <t>国投瑞银瑞源灵活配置混合</t>
+  </si>
+  <si>
+    <t>英大领先回报混合</t>
+  </si>
+  <si>
+    <t>万家瑞丰灵活配置混合C</t>
+  </si>
+  <si>
+    <t>国投瑞银新增长灵活配置混合C</t>
+  </si>
+  <si>
+    <t>国投瑞银招财灵活配置混合</t>
+  </si>
+  <si>
     <t>万家瑞盈灵活配置混合C</t>
   </si>
   <si>
-    <t>万家瑞尧灵活配置混合A</t>
+    <t>国投瑞银新机遇灵活配置混合C</t>
   </si>
   <si>
     <t>万家瑞尧灵活配置混合C</t>
   </si>
   <si>
+    <t>富安达中证 500 指数增强</t>
+  </si>
+  <si>
     <t>银河量化稳进混合</t>
   </si>
   <si>
-    <t>英大领先回报混合</t>
-  </si>
-  <si>
-    <t>国投瑞银新机遇灵活配置混合A</t>
-  </si>
-  <si>
-    <t>国投瑞银新机遇灵活配置混合C</t>
-  </si>
-  <si>
-    <t>华安新活力灵活配置混合</t>
-  </si>
-  <si>
-    <t>国投瑞银招财灵活配置混合</t>
-  </si>
-  <si>
-    <t>万家瑞丰灵活配置混合A</t>
-  </si>
-  <si>
-    <t>万家瑞丰灵活配置混合C</t>
-  </si>
-  <si>
-    <t>国投瑞银新增长灵活配置混合A</t>
-  </si>
-  <si>
-    <t>国投瑞银新增长灵活配置混合C</t>
-  </si>
-  <si>
-    <t>国投瑞银瑞源灵活配置混合</t>
-  </si>
-  <si>
-    <t>国投瑞银瑞利灵活配置混合（LOF）</t>
-  </si>
-  <si>
-    <t>国投瑞银瑞祥灵活配置混合</t>
-  </si>
-  <si>
-    <t>富安达中证 500 指数增强</t>
+    <t>5.78</t>
+  </si>
+  <si>
+    <t>5.76</t>
+  </si>
+  <si>
+    <t>6.43</t>
+  </si>
+  <si>
+    <t>5.35</t>
+  </si>
+  <si>
+    <t>5.52</t>
+  </si>
+  <si>
+    <t>5.86</t>
+  </si>
+  <si>
+    <t>1.31</t>
+  </si>
+  <si>
+    <t>7.72</t>
+  </si>
+  <si>
+    <t>1.41</t>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t>2.08</t>
+  </si>
+  <si>
+    <t>1.95</t>
+  </si>
+  <si>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>2.33</t>
+  </si>
+  <si>
+    <t>0.73</t>
+  </si>
+  <si>
+    <t>0.63</t>
+  </si>
+  <si>
+    <t>0.38</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>22.70</t>
+  </si>
+  <si>
+    <t>22.94</t>
+  </si>
+  <si>
+    <t>20.13</t>
+  </si>
+  <si>
+    <t>24.34</t>
+  </si>
+  <si>
+    <t>24.38</t>
   </si>
   <si>
     <t>21.13</t>
   </si>
   <si>
-    <t>24.34</t>
+    <t>63.81</t>
+  </si>
+  <si>
+    <t>20.15</t>
+  </si>
+  <si>
+    <t>57.03</t>
+  </si>
+  <si>
+    <t>92.41</t>
+  </si>
+  <si>
+    <t>63.67</t>
+  </si>
+  <si>
+    <t>91.29</t>
   </si>
   <si>
     <t>80.88</t>
   </si>
   <si>
-    <t>92.41</t>
-  </si>
-  <si>
-    <t>20.13</t>
-  </si>
-  <si>
-    <t>20.15</t>
-  </si>
-  <si>
-    <t>63.67</t>
-  </si>
-  <si>
-    <t>24.38</t>
-  </si>
-  <si>
-    <t>22.70</t>
-  </si>
-  <si>
-    <t>57.03</t>
-  </si>
-  <si>
-    <t>63.81</t>
-  </si>
-  <si>
-    <t>22.94</t>
-  </si>
-  <si>
-    <t>91.29</t>
-  </si>
-  <si>
-    <t>0.68</t>
+    <t>0.93</t>
+  </si>
+  <si>
+    <t>0.83</t>
   </si>
   <si>
     <t>0.94</t>
   </si>
   <si>
+    <t>0.91</t>
+  </si>
+  <si>
+    <t>2.45</t>
+  </si>
+  <si>
+    <t>2.04</t>
+  </si>
+  <si>
+    <t>2.82</t>
+  </si>
+  <si>
+    <t>2.59</t>
+  </si>
+  <si>
+    <t>1.32</t>
+  </si>
+  <si>
     <t>1.83</t>
   </si>
   <si>
-    <t>2.82</t>
-  </si>
-  <si>
-    <t>0.83</t>
-  </si>
-  <si>
-    <t>0.38</t>
-  </si>
-  <si>
-    <t>2.59</t>
-  </si>
-  <si>
-    <t>0.91</t>
-  </si>
-  <si>
-    <t>0.93</t>
-  </si>
-  <si>
-    <t>2.04</t>
-  </si>
-  <si>
-    <t>2.45</t>
-  </si>
-  <si>
-    <t>1.32</t>
+    <t>0.0538</t>
+  </si>
+  <si>
+    <t>0.0536</t>
+  </si>
+  <si>
+    <t>0.0534</t>
+  </si>
+  <si>
+    <t>0.0503</t>
+  </si>
+  <si>
+    <t>0.0502</t>
+  </si>
+  <si>
+    <t>0.0398</t>
+  </si>
+  <si>
+    <t>0.0321</t>
+  </si>
+  <si>
+    <t>0.0293</t>
+  </si>
+  <si>
+    <t>0.0288</t>
+  </si>
+  <si>
+    <t>0.0192</t>
+  </si>
+  <si>
+    <t>0.0189</t>
+  </si>
+  <si>
+    <t>0.0181</t>
+  </si>
+  <si>
+    <t>0.0168</t>
+  </si>
+  <si>
+    <t>0.0158</t>
+  </si>
+  <si>
+    <t>0.0061</t>
+  </si>
+  <si>
+    <t>0.0059</t>
+  </si>
+  <si>
+    <t>0.0050</t>
+  </si>
+  <si>
+    <t>0.0020</t>
   </si>
 </sst>
 </file>
@@ -569,13 +677,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,365 +699,479 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>61</v>
+      </c>
+      <c r="F2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="F3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>63</v>
+      </c>
+      <c r="F4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5">
+        <v>64</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>65</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>67</v>
+      </c>
+      <c r="F8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>68</v>
+      </c>
+      <c r="F9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>69</v>
+      </c>
+      <c r="F10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>70</v>
+      </c>
+      <c r="F11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12">
+        <v>65</v>
+      </c>
+      <c r="F12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
         <v>61</v>
       </c>
-      <c r="F13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="F13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>71</v>
+      </c>
+      <c r="F14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>66</v>
+      </c>
+      <c r="F15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
         <v>63</v>
       </c>
-      <c r="F16">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="F16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" t="s">
+        <v>98</v>
+      </c>
+      <c r="H16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
         <v>64</v>
       </c>
-      <c r="F17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="F17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>72</v>
+      </c>
+      <c r="F18" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" t="s">
+        <v>100</v>
+      </c>
+      <c r="H18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19">
-        <v>7</v>
+        <v>73</v>
+      </c>
+      <c r="F19" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" t="s">
+        <v>101</v>
+      </c>
+      <c r="H19">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000089-深圳机场.xlsx
+++ b/数据整理/stocks/A股/深证主板/000089-深圳机场.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1277,4 +1278,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000089-深圳机场.xlsx
+++ b/数据整理/stocks/A股/深证主板/000089-深圳机场.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1286,7 +1287,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1297,17 +1298,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1317,14 +1338,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.07000000000000001</v>
+          <t>001499</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银新增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0949</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1333,13 +1376,309 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>011243</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007509</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>42.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003598</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>42.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007326</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银新增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001448</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商双翼平衡混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>29.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011244</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>18</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.5</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000089-深圳机场.xlsx
+++ b/数据整理/stocks/A股/深证主板/000089-深圳机场.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1609,7 +1610,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1620,17 +1621,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1640,14 +1661,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.26</v>
+          <t>001499</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银新增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1656,14 +1699,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.07000000000000001</v>
+          <t>011243</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1672,13 +1737,173 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>007326</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银新增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011244</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>18</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.5</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000089-深圳机场.xlsx
+++ b/数据整理/stocks/A股/深证主板/000089-深圳机场.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1818,7 +1819,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1829,17 +1830,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1849,14 +1870,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1748</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.15</v>
       </c>
     </row>
     <row r="3">
@@ -1865,14 +1908,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.26</v>
+          <t>320015</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1881,14 +1946,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.07000000000000001</v>
+          <t>003598</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>42.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1897,13 +1984,227 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>007509</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>42.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011243</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011244</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>18</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.5</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000089-深圳机场.xlsx
+++ b/数据整理/stocks/A股/深证主板/000089-深圳机场.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>0.31</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.15</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.26</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>18</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -566,6 +583,554 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000556</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>21.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007509</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>40.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519615</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>35.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006429</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安恒鑫混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>70.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011243</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000557</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>21.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519613</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>35.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005053</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银河量化价值混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011244</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>27.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005126</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银河量化稳进混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>55.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519614</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>35.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003598</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>40.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013026</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银河量化价值混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -849,7 +1414,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1057,7 +1622,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1379,7 +1944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1473,7 +2038,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000089-深圳机场.xlsx
+++ b/数据整理/stocks/A股/深证主板/000089-深圳机场.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>0.31</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.15</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.26</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>18</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -583,6 +600,328 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1242</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>320015</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011243</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>29.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519615</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>38.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519613</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>38.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519614</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>38.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011244</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>29.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1130,7 +1469,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1414,7 +1753,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1622,7 +1961,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1944,7 +2283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2038,7 +2377,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
